--- a/Graphs/ar6(IR強度強い）のグラフ.xlsx
+++ b/Graphs/ar6(IR強度強い）のグラフ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="7" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="15" sheetId="5" r:id="rId6"/>
     <sheet name="16" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1404,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493526224"/>
-        <c:axId val="493521520"/>
+        <c:axId val="679728248"/>
+        <c:axId val="679727072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493526224"/>
+        <c:axId val="679728248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1522,12 +1525,1610 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493521520"/>
+        <c:crossAx val="679727072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493521520"/>
+        <c:axId val="679727072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[a.u]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679728248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>次高調波の信号強度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37738196779456623"/>
+          <c:y val="0.87653838450916532"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6034305171313039E-2"/>
+          <c:y val="2.9053747799597341E-2"/>
+          <c:w val="0.89101579059374336"/>
+          <c:h val="0.73372861524839517"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'12'!$B$1:$B$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="195"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2016666666666698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.4233333333333302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8666666666666707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0883333333333294</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.4133333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.856666666666699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.9625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.6275</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.62</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.285</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.393333333333299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.836666666666702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.612500000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.945</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.2775</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>23.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27.043333333333301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.4866666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.93</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>29.26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.703333333333301</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.1466666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.033333333333299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.476666666666599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.92</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.363333333333301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.806666666666601</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.58</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34.912500000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.244999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35.577500000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.353333333333303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.796666666666603</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37.24</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.683333333333302</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38.126666666666601</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.57</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.0133333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.343333333333298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.786666666666598</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41.23</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41.5625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.895000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.227499999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43.003333333333302</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43.446666666666601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.89</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.222499999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.555</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.887500000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45.22</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.552500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.217500000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46.8825</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47.215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47.547499999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47.88</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48.212499999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48.877499999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49.21</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>49.475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>49.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>50.008000000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>50.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50.54</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50.872500000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>51.537500000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51.87</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>52.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>52.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>52.667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>52.933999999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>53.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>53.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>53.997999999999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>54.264000000000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>54.53</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>54.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>55.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>55.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>55.594000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>55.86</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56.081666666666599</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>56.303333333333299</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56.524999999999899</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56.746666666666599</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>56.968333333333298</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57.189999999999898</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57.379999999999903</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57.57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>57.759999999999899</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.949999999999903</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>58.14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>58.329999999999899</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.519999999999897</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>58.785999999999902</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>59.052</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>59.317999999999898</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>59.583999999999897</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>59.849999999999902</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>61.1799999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>61.346249999999898</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>61.512499999999903</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>61.678749999999901</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>61.844999999999899</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>62.011249999999897</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>62.177499999999903</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>62.343749999999901</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>62.509999999999899</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>63.839999999999897</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>64.504999999999896</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>65.169999999999902</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>65.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>65.549999999999898</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>65.739999999999895</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>65.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>66.119999999999905</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>66.309999999999903</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>66.499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>66.578235294117604</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>66.656470588235194</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>66.734705882352898</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>66.812941176470503</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>66.891176470588206</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>66.969411764705796</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>67.0476470588235</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>67.125882352941105</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.204117647058794</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.282352941176399</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.360588235294102</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>67.438823529411707</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>67.517058823529396</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>67.595294117647001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>67.673529411764605</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>67.751764705882294</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>67.829999999999899</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>68.273333333333298</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>68.716666666666598</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>69.159999999999897</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>70.489999999999895</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>70.822499999999906</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>71.154999999999902</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>71.487499999999898</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>71.819999999999894</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>73.149999999999906</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>73.814999999999898</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>74.479999999999905</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>75.809999999999903</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>76.142499999999899</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>76.474999999999895</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>76.807499999999905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'12'!$C$1:$C$195</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="195"/>
+                <c:pt idx="0">
+                  <c:v>8963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8610</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8960</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9078</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8648</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8924</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8624</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7978</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8523</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8958</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8717</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8577</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9213</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8909</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9190</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7977</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8047</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9671</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9302</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8578</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8169</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8944</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8059</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8877</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10425</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9897</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8710</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7133</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8116</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9322</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10046</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7964</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7165</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9402</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10451</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9729</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9288</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7366</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8662</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9811</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9853</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9687</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7976</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7471</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8974</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10668</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8228</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7304</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8868</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10166</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10189</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10857</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10015</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8404</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7011</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8180</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9215</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10257</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10607</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10225</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8624</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7098</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8315</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10321</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10838</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10041</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9639</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7645</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7366</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8203</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9636</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10132</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10342</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10030</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7348</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6936</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7421</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8920</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9608</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10662</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10839</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10506</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9881</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8156</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7155</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6853</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7384</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8876</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10210</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10630</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>11433</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10933</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10408</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9354</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8246</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6943</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6749</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7864</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8657</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9030</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9783</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10719</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10370</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10782</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>10718</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9796</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6677</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6916</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6765</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7062</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8014</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8925</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9162</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9425</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>10676</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10746</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10616</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10708</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>10842</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10745</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10204</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>8993</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7987</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7530</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6574</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5932</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6666</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6301</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6920</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6790</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7579</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7301</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8273</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8490</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8946</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9337</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9256</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9946</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9710</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10007</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10113</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11086</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10922</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10685</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>11725</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10336</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11668</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10616</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>10737</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>10766</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>10716</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>10729</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10756</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10608</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>10660</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10619</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="679744712"/>
+        <c:axId val="679739616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="679744712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>XUV-IR delay[fs]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43389895722494154"/>
+              <c:y val="0.81418334756348243"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679739616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679739616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +3238,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493526224"/>
+        <c:crossAx val="679744712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3006,11 +4607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493519952"/>
-        <c:axId val="493520344"/>
+        <c:axId val="679727464"/>
+        <c:axId val="679734128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493519952"/>
+        <c:axId val="679727464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -3124,12 +4725,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493520344"/>
+        <c:crossAx val="679734128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493520344"/>
+        <c:axId val="679734128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +4776,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3239,7 +4839,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493519952"/>
+        <c:crossAx val="679727464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4608,11 +6208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="493521912"/>
-        <c:axId val="573884096"/>
+        <c:axId val="679735304"/>
+        <c:axId val="679728640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="493521912"/>
+        <c:axId val="679735304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -4726,12 +6326,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573884096"/>
+        <c:crossAx val="679728640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573884096"/>
+        <c:axId val="679728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +6377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4841,7 +6440,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493521912"/>
+        <c:crossAx val="679735304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6210,11 +7809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="573879000"/>
-        <c:axId val="573879392"/>
+        <c:axId val="679730600"/>
+        <c:axId val="679729424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="573879000"/>
+        <c:axId val="679730600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -6328,12 +7927,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573879392"/>
+        <c:crossAx val="679729424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573879392"/>
+        <c:axId val="679729424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6379,7 +7978,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6443,7 +8041,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573879000"/>
+        <c:crossAx val="679730600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7812,11 +9410,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="573880176"/>
-        <c:axId val="573880568"/>
+        <c:axId val="679731776"/>
+        <c:axId val="679732168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="573880176"/>
+        <c:axId val="679731776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -7930,12 +9528,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573880568"/>
+        <c:crossAx val="679732168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573880568"/>
+        <c:axId val="679732168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7981,7 +9579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8045,7 +9642,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573880176"/>
+        <c:crossAx val="679731776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9414,11 +11011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490454280"/>
-        <c:axId val="490454672"/>
+        <c:axId val="679733736"/>
+        <c:axId val="679745104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490454280"/>
+        <c:axId val="679733736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -9532,12 +11129,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490454672"/>
+        <c:crossAx val="679745104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490454672"/>
+        <c:axId val="679745104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9646,7 +11243,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490454280"/>
+        <c:crossAx val="679733736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17119,11 +18716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="490451928"/>
-        <c:axId val="490452320"/>
+        <c:axId val="679739224"/>
+        <c:axId val="679740008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="490451928"/>
+        <c:axId val="679739224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -17237,12 +18834,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490452320"/>
+        <c:crossAx val="679740008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490452320"/>
+        <c:axId val="679740008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17288,7 +18885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17352,7 +18948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490451928"/>
+        <c:crossAx val="679739224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18759,11 +20355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496132088"/>
-        <c:axId val="496128952"/>
+        <c:axId val="679742360"/>
+        <c:axId val="679741184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496132088"/>
+        <c:axId val="679742360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -18877,12 +20473,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496128952"/>
+        <c:crossAx val="679741184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496128952"/>
+        <c:axId val="679741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18991,7 +20587,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496132088"/>
+        <c:crossAx val="679742360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19050,43 +20646,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>12</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>次高調波の信号強度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37738196779456623"/>
-          <c:y val="0.87653838450916532"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19118,17 +20678,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6034305171313039E-2"/>
-          <c:y val="2.9053747799597341E-2"/>
-          <c:w val="0.89101579059374336"/>
-          <c:h val="0.73372861524839517"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -19161,1188 +20711,1095 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'12'!$B$1:$B$195</c:f>
+              <c:f>'11'!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
+                  <c:v>66.499999999999886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.834999999999894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.169999999999902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.839999999999897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.174999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.509999999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.844999999999892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.1799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.84749999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.514999999999894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.182499999999898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.849999999999888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.184999999999896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.519999999999889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57.189999999999891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.859999999999893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.416666666666593</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.973333333333194</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.529999999999895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.864999999999888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.199999999999896</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.869999999999891</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.204999999999892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.539999999999893</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.209999999999894</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.544999999999895</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.879999999999889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.214999999999897</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.549999999999891</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.884999999999899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.219999999999892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.776666666666593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.333333333333194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.889999999999894</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.446666666666594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.003333333333195</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.894999999999889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.786666666666598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.343333333333199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>39.899999999999892</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.234999999999893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.126666666666594</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.683333333333195</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37.239999999999888</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36.574999999999896</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.577499999999894</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.912499999999895</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.914999999999893</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.806666666666594</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.363333333333294</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.254999999999896</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.14666666666659</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29.703333333333291</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.259999999999891</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.59749999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.264999999999894</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.932499999999891</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.937499999999893</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24.60499999999989</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.272499999999894</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.939999999999891</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.496666666666592</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.053333333333292</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19.683999999999891</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19.417999999999893</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19.151999999999894</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.885999999999896</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.619999999999891</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18.176666666666591</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.733333333333292</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99750000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.2016666666666698</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.4233333333333302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.6449999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.8666666666666707</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.0883333333333294</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.305</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.97</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.4133333333333</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.856666666666699</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.63</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14.9625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.295</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.6275</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.96</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.625</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.29</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17.954999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18.62</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>19.285</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.393333333333299</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.836666666666702</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.28</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.612500000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.945</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22.2775</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.61</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>23.274999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.27</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>27.043333333333301</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>27.4866666666667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>27.93</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28.594999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29.26</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>29.703333333333301</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30.1466666666667</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30.59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31.033333333333299</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.476666666666599</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31.92</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>32.363333333333301</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>32.806666666666601</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>33.25</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>33.914999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>34.58</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>34.912500000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>35.244999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>35.577500000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>35.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>36.353333333333303</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>36.796666666666603</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>37.24</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>37.683333333333302</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>38.126666666666601</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>38.57</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>39.0133333333333</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>39.456666666666599</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>39.9</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>40.343333333333298</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>40.786666666666598</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>41.23</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>41.5625</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>41.895000000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>42.227499999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>42.56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43.003333333333302</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43.446666666666601</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43.89</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44.222499999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44.555</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44.887500000000003</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>45.22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45.552500000000002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>45.884999999999998</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>46.217500000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>46.55</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>46.8825</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47.215000000000003</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>47.547499999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>47.88</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>48.212499999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>48.545000000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>48.877499999999998</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>49.21</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>49.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>49.741999999999997</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>50.008000000000003</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>50.274000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>50.54</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>50.872500000000002</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>51.204999999999998</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>51.537500000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>51.87</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>52.136000000000003</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>52.402000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>52.667999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>52.933999999999997</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>53.2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>53.466000000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>53.731999999999999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>53.997999999999998</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>54.264000000000003</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>54.53</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>54.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>55.061999999999998</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>55.328000000000003</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>55.594000000000001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>55.86</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>56.081666666666599</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>56.303333333333299</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>56.524999999999899</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>56.746666666666599</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>56.968333333333298</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>57.189999999999898</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>57.379999999999903</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>57.57</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>57.759999999999899</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>57.949999999999903</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>58.14</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>58.329999999999899</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>58.519999999999897</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>58.785999999999902</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>59.052</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>59.317999999999898</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>59.583999999999897</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>59.849999999999902</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>61.1799999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>61.346249999999898</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>61.512499999999903</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>61.678749999999901</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>61.844999999999899</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>62.011249999999897</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>62.177499999999903</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>62.343749999999901</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>62.509999999999899</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>63.839999999999897</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>64.504999999999896</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>65.169999999999902</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>65.3599999999999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>65.549999999999898</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>65.739999999999895</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>65.930000000000007</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>66.119999999999905</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>66.309999999999903</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>66.499999999999901</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>66.578235294117604</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>66.656470588235194</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>66.734705882352898</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>66.812941176470503</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>66.891176470588206</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>66.969411764705796</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>67.0476470588235</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>67.125882352941105</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>67.204117647058794</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>67.282352941176399</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>67.360588235294102</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>67.438823529411707</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>67.517058823529396</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>67.595294117647001</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>67.673529411764605</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>67.751764705882294</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>67.829999999999899</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>68.273333333333298</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>68.716666666666598</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>69.159999999999897</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>70.489999999999895</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>70.822499999999906</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>71.154999999999902</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>71.487499999999898</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>71.819999999999894</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>73.149999999999906</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>73.814999999999898</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>74.479999999999905</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>75.809999999999903</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>76.142499999999899</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>76.474999999999895</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>76.807499999999905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'12'!$C$1:$C$195</c:f>
+              <c:f>'11'!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>8963</c:v>
+                  <c:v>8133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8610</c:v>
+                  <c:v>8401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8632</c:v>
+                  <c:v>8677</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8804</c:v>
+                  <c:v>8524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8841</c:v>
+                  <c:v>8719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8781</c:v>
+                  <c:v>8768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8308</c:v>
+                  <c:v>8381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8960</c:v>
+                  <c:v>8873</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9088</c:v>
+                  <c:v>8414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8508</c:v>
+                  <c:v>7911</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8628</c:v>
+                  <c:v>8332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9121</c:v>
+                  <c:v>8364</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9074</c:v>
+                  <c:v>9020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9078</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8648</c:v>
+                  <c:v>7935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8924</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8627</c:v>
+                  <c:v>8408</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8624</c:v>
+                  <c:v>7723</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8702</c:v>
+                  <c:v>8223</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7978</c:v>
+                  <c:v>8265</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>8404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8622</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8093</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7526</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8406</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8460</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7729</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7127</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>8523</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>8988</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8958</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8717</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8577</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9213</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8438</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8433</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8197</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8909</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9190</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8602</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7977</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8047</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9780</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>9671</c:v>
+                  <c:v>8549</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9302</c:v>
+                  <c:v>8268</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8156</c:v>
+                  <c:v>7568</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8578</c:v>
+                  <c:v>7451</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8925</c:v>
+                  <c:v>8001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9203</c:v>
+                  <c:v>8373</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9204</c:v>
+                  <c:v>8667</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8196</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8169</c:v>
+                  <c:v>7364</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9199</c:v>
+                  <c:v>7668</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8944</c:v>
+                  <c:v>8864</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9098</c:v>
+                  <c:v>8383</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8059</c:v>
+                  <c:v>6875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7714</c:v>
+                  <c:v>6508</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8877</c:v>
+                  <c:v>7270</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10425</c:v>
+                  <c:v>9910</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9897</c:v>
+                  <c:v>9272</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8710</c:v>
+                  <c:v>7610</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7133</c:v>
+                  <c:v>6178</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8116</c:v>
+                  <c:v>7381</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9322</c:v>
+                  <c:v>7817</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10046</c:v>
+                  <c:v>9578</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8903</c:v>
+                  <c:v>8645</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7964</c:v>
+                  <c:v>6795</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7165</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9402</c:v>
+                  <c:v>7416</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10451</c:v>
+                  <c:v>8621</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9729</c:v>
+                  <c:v>9690</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9288</c:v>
+                  <c:v>7433</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>7602</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7366</c:v>
+                  <c:v>6650</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8662</c:v>
+                  <c:v>7226</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9811</c:v>
+                  <c:v>8863</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9853</c:v>
+                  <c:v>9450</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9687</c:v>
+                  <c:v>7813</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7976</c:v>
+                  <c:v>6093</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7471</c:v>
+                  <c:v>6502</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8974</c:v>
+                  <c:v>7199</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9800</c:v>
+                  <c:v>9310</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10668</c:v>
+                  <c:v>10186</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9597</c:v>
+                  <c:v>9219</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8228</c:v>
+                  <c:v>6937</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7304</c:v>
+                  <c:v>6270</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8868</c:v>
+                  <c:v>7088</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10166</c:v>
+                  <c:v>8364</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>10189</c:v>
+                  <c:v>9253</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10857</c:v>
+                  <c:v>10158</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10015</c:v>
+                  <c:v>8773</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8404</c:v>
+                  <c:v>6430</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7011</c:v>
+                  <c:v>6357</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8180</c:v>
+                  <c:v>6374</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9215</c:v>
+                  <c:v>7752</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10257</c:v>
+                  <c:v>9340</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10607</c:v>
+                  <c:v>10073</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10225</c:v>
+                  <c:v>8090</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8624</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7098</c:v>
+                  <c:v>6104</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7003</c:v>
+                  <c:v>6286</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8315</c:v>
+                  <c:v>7102</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9568</c:v>
+                  <c:v>8741</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10321</c:v>
+                  <c:v>9355</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10838</c:v>
+                  <c:v>10496</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10041</c:v>
+                  <c:v>9567</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9639</c:v>
+                  <c:v>7325</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7645</c:v>
+                  <c:v>6383</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7366</c:v>
+                  <c:v>5997</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8203</c:v>
+                  <c:v>6631</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9636</c:v>
+                  <c:v>7355</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10132</c:v>
+                  <c:v>9124</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10342</c:v>
+                  <c:v>10377</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11300</c:v>
+                  <c:v>10850</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>10800</c:v>
+                  <c:v>9130</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10030</c:v>
+                  <c:v>7460</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7348</c:v>
+                  <c:v>6291</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6936</c:v>
+                  <c:v>6339</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7421</c:v>
+                  <c:v>6446</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8920</c:v>
+                  <c:v>7473</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>9608</c:v>
+                  <c:v>9020</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>10662</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>10839</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>10506</c:v>
+                  <c:v>10368</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9881</c:v>
+                  <c:v>7856</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8156</c:v>
+                  <c:v>6923</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7155</c:v>
+                  <c:v>5861</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6853</c:v>
+                  <c:v>5846</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7384</c:v>
+                  <c:v>6317</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8876</c:v>
+                  <c:v>7413</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>10210</c:v>
+                  <c:v>8720</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>10630</c:v>
+                  <c:v>9863</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>11433</c:v>
+                  <c:v>10789</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>10933</c:v>
+                  <c:v>10143</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>10408</c:v>
+                  <c:v>9197</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9354</c:v>
+                  <c:v>8522</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8246</c:v>
+                  <c:v>6736</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6943</c:v>
+                  <c:v>5689</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6749</c:v>
+                  <c:v>6334</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7864</c:v>
+                  <c:v>5904</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8657</c:v>
+                  <c:v>7152</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9030</c:v>
+                  <c:v>8069</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9783</c:v>
+                  <c:v>8979</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>10719</c:v>
+                  <c:v>9978</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>10370</c:v>
+                  <c:v>10453</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>10782</c:v>
+                  <c:v>11182</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10718</c:v>
+                  <c:v>10131</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9796</c:v>
+                  <c:v>8743</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8527</c:v>
+                  <c:v>7305</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8007</c:v>
+                  <c:v>6572</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6677</c:v>
+                  <c:v>5998</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6916</c:v>
+                  <c:v>5775</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6765</c:v>
+                  <c:v>5745</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>7062</c:v>
+                  <c:v>6125</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>8014</c:v>
+                  <c:v>6892</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>8925</c:v>
+                  <c:v>7462</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>9162</c:v>
+                  <c:v>8630</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>9425</c:v>
+                  <c:v>9705</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>10676</c:v>
+                  <c:v>10558</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>10746</c:v>
+                  <c:v>11333</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>10616</c:v>
+                  <c:v>10836</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>10708</c:v>
+                  <c:v>10730</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>10842</c:v>
+                  <c:v>10391</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>10745</c:v>
+                  <c:v>10177</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>10204</c:v>
+                  <c:v>9045</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>8993</c:v>
+                  <c:v>7701</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>7987</c:v>
+                  <c:v>6948</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>7530</c:v>
+                  <c:v>5911</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>6574</c:v>
+                  <c:v>5812</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>5932</c:v>
+                  <c:v>5843</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>6666</c:v>
+                  <c:v>5968</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>6301</c:v>
+                  <c:v>5515</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>6920</c:v>
+                  <c:v>5402</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>6790</c:v>
+                  <c:v>6653</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7579</c:v>
+                  <c:v>6178</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7301</c:v>
+                  <c:v>6328</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>8273</c:v>
+                  <c:v>7406</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>8490</c:v>
+                  <c:v>7677</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>9000</c:v>
+                  <c:v>7844</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>8946</c:v>
+                  <c:v>8085</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>9337</c:v>
+                  <c:v>8221</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>9256</c:v>
+                  <c:v>8926</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>9946</c:v>
+                  <c:v>9158</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9710</c:v>
+                  <c:v>9475</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>10007</c:v>
+                  <c:v>9638</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>10113</c:v>
+                  <c:v>9824</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>11086</c:v>
+                  <c:v>9775</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>10922</c:v>
+                  <c:v>10811</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>10685</c:v>
+                  <c:v>10391</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11725</c:v>
+                  <c:v>10857</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10336</c:v>
+                  <c:v>10683</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11668</c:v>
+                  <c:v>11080</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>10616</c:v>
+                  <c:v>10701</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>10737</c:v>
+                  <c:v>10713</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>10766</c:v>
+                  <c:v>10456</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>10716</c:v>
+                  <c:v>10395</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>10729</c:v>
+                  <c:v>10364</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>10756</c:v>
+                  <c:v>10181</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10608</c:v>
+                  <c:v>10518</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>10660</c:v>
+                  <c:v>10270</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>10619</c:v>
+                  <c:v>9926</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>10239</c:v>
+                  <c:v>10247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20357,99 +21814,42 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496124248"/>
-        <c:axId val="496126992"/>
+        <c:axId val="747962400"/>
+        <c:axId val="747961224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496124248"/>
+        <c:axId val="747962400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.43389895722494154"/>
-              <c:y val="0.81418334756348243"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -20475,12 +21875,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496126992"/>
+        <c:crossAx val="747961224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496126992"/>
+        <c:axId val="747961224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20489,82 +21889,29 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>信号強度</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[a.u]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -20590,7 +21937,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496124248"/>
+        <c:crossAx val="747962400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20611,7 +21958,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -20637,6 +21989,46 @@
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -20791,6 +22183,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25695,6 +27603,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25733,6 +27671,1499 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="グラフ"/>
+      <sheetName val="11"/>
+      <sheetName val="12"/>
+      <sheetName val="13"/>
+      <sheetName val="14"/>
+      <sheetName val="15"/>
+      <sheetName val="16"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1">
+            <v>6826</v>
+          </cell>
+          <cell r="E1">
+            <v>66.499999999999886</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>6624</v>
+          </cell>
+          <cell r="E2">
+            <v>65.834999999999894</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>6883</v>
+          </cell>
+          <cell r="E3">
+            <v>65.169999999999902</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>6134</v>
+          </cell>
+          <cell r="E4">
+            <v>63.839999999999897</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>6498</v>
+          </cell>
+          <cell r="E5">
+            <v>63.174999999999891</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>7002</v>
+          </cell>
+          <cell r="E6">
+            <v>62.509999999999899</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>6975</v>
+          </cell>
+          <cell r="E7">
+            <v>61.844999999999892</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>6338</v>
+          </cell>
+          <cell r="E8">
+            <v>61.1799999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>6742</v>
+          </cell>
+          <cell r="E9">
+            <v>60.84749999999989</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>6790</v>
+          </cell>
+          <cell r="E10">
+            <v>60.514999999999894</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>6712</v>
+          </cell>
+          <cell r="E11">
+            <v>60.182499999999898</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>7131</v>
+          </cell>
+          <cell r="E12">
+            <v>59.849999999999888</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>6597</v>
+          </cell>
+          <cell r="E13">
+            <v>59.184999999999896</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>6611</v>
+          </cell>
+          <cell r="E14">
+            <v>58.519999999999889</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>6259</v>
+          </cell>
+          <cell r="E15">
+            <v>57.189999999999891</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>6829</v>
+          </cell>
+          <cell r="E16">
+            <v>55.859999999999893</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>6511</v>
+          </cell>
+          <cell r="E17">
+            <v>55.416666666666593</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>6524</v>
+          </cell>
+          <cell r="E18">
+            <v>54.973333333333194</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>6993</v>
+          </cell>
+          <cell r="E19">
+            <v>54.529999999999895</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>6419</v>
+          </cell>
+          <cell r="E20">
+            <v>53.864999999999888</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>6076</v>
+          </cell>
+          <cell r="E21">
+            <v>53.199999999999896</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>8098</v>
+          </cell>
+          <cell r="E22">
+            <v>51.869999999999891</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>7386</v>
+          </cell>
+          <cell r="E23">
+            <v>51.204999999999892</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>6881</v>
+          </cell>
+          <cell r="E24">
+            <v>50.539999999999893</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>7110</v>
+          </cell>
+          <cell r="E25">
+            <v>49.209999999999894</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>7050</v>
+          </cell>
+          <cell r="E26">
+            <v>48.544999999999895</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>7291</v>
+          </cell>
+          <cell r="E27">
+            <v>47.879999999999889</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>7180</v>
+          </cell>
+          <cell r="E28">
+            <v>47.214999999999897</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>6280</v>
+          </cell>
+          <cell r="E29">
+            <v>46.549999999999891</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>6522</v>
+          </cell>
+          <cell r="E30">
+            <v>45.884999999999899</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>6787</v>
+          </cell>
+          <cell r="E31">
+            <v>45.219999999999892</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>6610</v>
+          </cell>
+          <cell r="E32">
+            <v>44.776666666666593</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>6233</v>
+          </cell>
+          <cell r="E33">
+            <v>44.333333333333194</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>5776</v>
+          </cell>
+          <cell r="E34">
+            <v>43.889999999999894</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>6522</v>
+          </cell>
+          <cell r="E35">
+            <v>43.446666666666594</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>7128</v>
+          </cell>
+          <cell r="E36">
+            <v>43.003333333333195</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>7391</v>
+          </cell>
+          <cell r="E37">
+            <v>42.559999999999896</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>6151</v>
+          </cell>
+          <cell r="E38">
+            <v>41.894999999999889</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>6062</v>
+          </cell>
+          <cell r="E39">
+            <v>41.229999999999897</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>6298</v>
+          </cell>
+          <cell r="E40">
+            <v>40.786666666666598</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>7071</v>
+          </cell>
+          <cell r="E41">
+            <v>40.343333333333199</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>7647</v>
+          </cell>
+          <cell r="E42">
+            <v>39.899999999999892</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>6789</v>
+          </cell>
+          <cell r="E43">
+            <v>39.234999999999893</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>5820</v>
+          </cell>
+          <cell r="E44">
+            <v>38.569999999999894</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>6200</v>
+          </cell>
+          <cell r="E45">
+            <v>38.126666666666594</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>6756</v>
+          </cell>
+          <cell r="E46">
+            <v>37.683333333333195</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>8007</v>
+          </cell>
+          <cell r="E47">
+            <v>37.239999999999888</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>6946</v>
+          </cell>
+          <cell r="E48">
+            <v>36.574999999999896</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>5583</v>
+          </cell>
+          <cell r="E49">
+            <v>35.90999999999989</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>5965</v>
+          </cell>
+          <cell r="E50">
+            <v>35.577499999999894</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>6275</v>
+          </cell>
+          <cell r="E51">
+            <v>35.244999999999898</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>7153</v>
+          </cell>
+          <cell r="E52">
+            <v>34.912499999999895</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>8472</v>
+          </cell>
+          <cell r="E53">
+            <v>34.579999999999892</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>5988</v>
+          </cell>
+          <cell r="E54">
+            <v>33.914999999999893</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>5823</v>
+          </cell>
+          <cell r="E55">
+            <v>33.249999999999893</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>5940</v>
+          </cell>
+          <cell r="E56">
+            <v>32.806666666666594</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>7881</v>
+          </cell>
+          <cell r="E57">
+            <v>32.363333333333294</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>8062</v>
+          </cell>
+          <cell r="E58">
+            <v>31.919999999999895</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>5928</v>
+          </cell>
+          <cell r="E59">
+            <v>31.254999999999896</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>4677</v>
+          </cell>
+          <cell r="E60">
+            <v>30.589999999999897</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>5564</v>
+          </cell>
+          <cell r="E61">
+            <v>30.14666666666659</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>6396</v>
+          </cell>
+          <cell r="E62">
+            <v>29.703333333333291</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>8155</v>
+          </cell>
+          <cell r="E63">
+            <v>29.259999999999891</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>7950</v>
+          </cell>
+          <cell r="E64">
+            <v>28.816666666666592</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>5563</v>
+          </cell>
+          <cell r="E65">
+            <v>28.373333333333292</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>4938</v>
+          </cell>
+          <cell r="E66">
+            <v>27.929999999999893</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>5597</v>
+          </cell>
+          <cell r="E67">
+            <v>27.59749999999989</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>7295</v>
+          </cell>
+          <cell r="E68">
+            <v>27.264999999999894</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>8288</v>
+          </cell>
+          <cell r="E69">
+            <v>26.932499999999891</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>8724</v>
+          </cell>
+          <cell r="E70">
+            <v>26.599999999999895</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>6947</v>
+          </cell>
+          <cell r="E71">
+            <v>25.934999999999896</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>4983</v>
+          </cell>
+          <cell r="E72">
+            <v>25.269999999999897</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>5345</v>
+          </cell>
+          <cell r="E73">
+            <v>24.937499999999893</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>6632</v>
+          </cell>
+          <cell r="E74">
+            <v>24.60499999999989</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>8306</v>
+          </cell>
+          <cell r="E75">
+            <v>24.272499999999894</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>8963</v>
+          </cell>
+          <cell r="E76">
+            <v>23.939999999999891</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>6712</v>
+          </cell>
+          <cell r="E77">
+            <v>23.496666666666592</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>5050</v>
+          </cell>
+          <cell r="E78">
+            <v>23.053333333333292</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>4748</v>
+          </cell>
+          <cell r="E79">
+            <v>22.609999999999893</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>5855</v>
+          </cell>
+          <cell r="E80">
+            <v>22.166666666666593</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>7359</v>
+          </cell>
+          <cell r="E81">
+            <v>21.723333333333294</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>9335</v>
+          </cell>
+          <cell r="E82">
+            <v>21.279999999999895</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>8447</v>
+          </cell>
+          <cell r="E83">
+            <v>20.836666666666595</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>6124</v>
+          </cell>
+          <cell r="E84">
+            <v>20.393333333333295</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>4455</v>
+          </cell>
+          <cell r="E85">
+            <v>19.949999999999896</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>4912</v>
+          </cell>
+          <cell r="E86">
+            <v>19.683999999999891</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>5764</v>
+          </cell>
+          <cell r="E87">
+            <v>19.417999999999893</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>7579</v>
+          </cell>
+          <cell r="E88">
+            <v>19.151999999999894</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>8857</v>
+          </cell>
+          <cell r="E89">
+            <v>18.885999999999896</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>9215</v>
+          </cell>
+          <cell r="E90">
+            <v>18.619999999999891</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>7316</v>
+          </cell>
+          <cell r="E91">
+            <v>18.176666666666591</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>4915</v>
+          </cell>
+          <cell r="E92">
+            <v>17.733333333333292</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>4924</v>
+          </cell>
+          <cell r="E93">
+            <v>17.289999999999893</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>4644</v>
+          </cell>
+          <cell r="E94">
+            <v>15.959999999999894</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>5872</v>
+          </cell>
+          <cell r="E95">
+            <v>15.627499999999891</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>7815</v>
+          </cell>
+          <cell r="E96">
+            <v>15.294999999999895</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>9269</v>
+          </cell>
+          <cell r="E97">
+            <v>14.962499999999892</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>9678</v>
+          </cell>
+          <cell r="E98">
+            <v>14.629999999999896</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>7042</v>
+          </cell>
+          <cell r="E99">
+            <v>14.186666666666596</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>5176</v>
+          </cell>
+          <cell r="E100">
+            <v>13.743333333333297</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>4552</v>
+          </cell>
+          <cell r="E101">
+            <v>13.299999999999891</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>5118</v>
+          </cell>
+          <cell r="E102">
+            <v>13.033999999999892</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>5270</v>
+          </cell>
+          <cell r="E103">
+            <v>12.767999999999894</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>7136</v>
+          </cell>
+          <cell r="E104">
+            <v>12.501999999999896</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>8534</v>
+          </cell>
+          <cell r="E105">
+            <v>12.235999999999891</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106">
+            <v>9544</v>
+          </cell>
+          <cell r="E106">
+            <v>11.969999999999892</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107">
+            <v>8551</v>
+          </cell>
+          <cell r="E107">
+            <v>11.703999999999894</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108">
+            <v>6770</v>
+          </cell>
+          <cell r="E108">
+            <v>11.437999999999896</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109">
+            <v>5595</v>
+          </cell>
+          <cell r="E109">
+            <v>11.17199999999989</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>4729</v>
+          </cell>
+          <cell r="E110">
+            <v>10.905999999999892</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>4640</v>
+          </cell>
+          <cell r="E111">
+            <v>10.639999999999894</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>5369</v>
+          </cell>
+          <cell r="E112">
+            <v>10.307499999999891</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>6975</v>
+          </cell>
+          <cell r="E113">
+            <v>9.9749999999999943</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>7758</v>
+          </cell>
+          <cell r="E114">
+            <v>9.6424999999998917</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>9454</v>
+          </cell>
+          <cell r="E115">
+            <v>9.3099999999999952</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>8910</v>
+          </cell>
+          <cell r="E116">
+            <v>9.0883333333332956</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>8825</v>
+          </cell>
+          <cell r="E117">
+            <v>8.8666666666665961</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>6536</v>
+          </cell>
+          <cell r="E118">
+            <v>8.644999999999996</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119">
+            <v>5044</v>
+          </cell>
+          <cell r="E119">
+            <v>8.4233333333332965</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120">
+            <v>4643</v>
+          </cell>
+          <cell r="E120">
+            <v>8.2016666666665969</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121">
+            <v>4581</v>
+          </cell>
+          <cell r="E121">
+            <v>7.9799999999999969</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="C122">
+            <v>5393</v>
+          </cell>
+          <cell r="E122">
+            <v>7.7139999999999915</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>6696</v>
+          </cell>
+          <cell r="E123">
+            <v>7.4479999999998938</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>7577</v>
+          </cell>
+          <cell r="E124">
+            <v>7.1819999999999951</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>9404</v>
+          </cell>
+          <cell r="E125">
+            <v>6.9159999999999968</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>10196</v>
+          </cell>
+          <cell r="E126">
+            <v>6.6499999999999915</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>8761</v>
+          </cell>
+          <cell r="E127">
+            <v>6.3839999999999932</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>8832</v>
+          </cell>
+          <cell r="E128">
+            <v>6.117999999999995</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>6197</v>
+          </cell>
+          <cell r="E129">
+            <v>5.8519999999999968</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>4920</v>
+          </cell>
+          <cell r="E130">
+            <v>5.5859999999999914</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>4756</v>
+          </cell>
+          <cell r="E131">
+            <v>5.3199999999999932</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>5160</v>
+          </cell>
+          <cell r="E132">
+            <v>5.1299999999999955</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>5050</v>
+          </cell>
+          <cell r="E133">
+            <v>4.9399999999999906</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>6140</v>
+          </cell>
+          <cell r="E134">
+            <v>4.7499999999999929</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>7399</v>
+          </cell>
+          <cell r="E135">
+            <v>4.5599999999999952</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136">
+            <v>8445</v>
+          </cell>
+          <cell r="E136">
+            <v>4.3699999999999903</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137">
+            <v>9254</v>
+          </cell>
+          <cell r="E137">
+            <v>4.1799999999999926</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138">
+            <v>10082</v>
+          </cell>
+          <cell r="E138">
+            <v>3.9899999999999949</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139">
+            <v>9604</v>
+          </cell>
+          <cell r="E139">
+            <v>3.7683333333332953</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140">
+            <v>8609</v>
+          </cell>
+          <cell r="E140">
+            <v>3.5466666666665958</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141">
+            <v>7892</v>
+          </cell>
+          <cell r="E141">
+            <v>3.3249999999999957</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142">
+            <v>6245</v>
+          </cell>
+          <cell r="E142">
+            <v>3.1033333333332962</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143">
+            <v>5130</v>
+          </cell>
+          <cell r="E143">
+            <v>2.8816666666665967</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144">
+            <v>4839</v>
+          </cell>
+          <cell r="E144">
+            <v>2.6599999999999966</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145">
+            <v>4873</v>
+          </cell>
+          <cell r="E145">
+            <v>2.5390909090908949</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146">
+            <v>5082</v>
+          </cell>
+          <cell r="E146">
+            <v>2.4181818181818002</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147">
+            <v>5169</v>
+          </cell>
+          <cell r="E147">
+            <v>2.2972727272726914</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148">
+            <v>6056</v>
+          </cell>
+          <cell r="E148">
+            <v>2.1763636363635968</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149">
+            <v>6660</v>
+          </cell>
+          <cell r="E149">
+            <v>2.0554545454544879</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150">
+            <v>7336</v>
+          </cell>
+          <cell r="E150">
+            <v>1.9345454545453933</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151">
+            <v>9179</v>
+          </cell>
+          <cell r="E151">
+            <v>1.8136363636362987</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152">
+            <v>10030</v>
+          </cell>
+          <cell r="E152">
+            <v>1.6927272727271898</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153">
+            <v>9874</v>
+          </cell>
+          <cell r="E153">
+            <v>1.5718181818180952</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154">
+            <v>10213</v>
+          </cell>
+          <cell r="E154">
+            <v>1.4509090909089863</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155">
+            <v>10242</v>
+          </cell>
+          <cell r="E155">
+            <v>1.3299999999999912</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156">
+            <v>10176</v>
+          </cell>
+          <cell r="E156">
+            <v>1.1822222222221868</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157">
+            <v>8584</v>
+          </cell>
+          <cell r="E157">
+            <v>1.0344444444443965</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158">
+            <v>7316</v>
+          </cell>
+          <cell r="E158">
+            <v>0.88666666666659211</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159">
+            <v>6591</v>
+          </cell>
+          <cell r="E159">
+            <v>0.73888888888878768</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160">
+            <v>6167</v>
+          </cell>
+          <cell r="E160">
+            <v>0.59111111111109693</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161">
+            <v>5919</v>
+          </cell>
+          <cell r="E161">
+            <v>0.4433333333332925</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162">
+            <v>5295</v>
+          </cell>
+          <cell r="E162">
+            <v>0.29555555555548807</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163">
+            <v>5156</v>
+          </cell>
+          <cell r="E163">
+            <v>0.14777777777769785</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164">
+            <v>4719</v>
+          </cell>
+          <cell r="E164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165">
+            <v>4871</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166">
+            <v>4787</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167">
+            <v>5263</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="C168">
+            <v>5654</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169">
+            <v>5995</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170">
+            <v>6045</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171">
+            <v>6680</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="C172">
+            <v>7352</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173">
+            <v>7422</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174">
+            <v>7621</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="C175">
+            <v>7850</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="C176">
+            <v>8201</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177">
+            <v>8906</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178">
+            <v>8966</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179">
+            <v>9121</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="C180">
+            <v>9090</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="C181">
+            <v>9365</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="C182">
+            <v>9008</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="C183">
+            <v>9714</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="C184">
+            <v>10508</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="C185">
+            <v>9881</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186">
+            <v>9652</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="C187">
+            <v>9596</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188">
+            <v>10521</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="C189">
+            <v>10171</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190">
+            <v>10190</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="C191">
+            <v>10371</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="C192">
+            <v>10278</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193">
+            <v>9854</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="C194">
+            <v>9421</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="C195">
+            <v>9978</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26038,10 +29469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26049,7 +29480,7 @@
     <col min="1" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -26059,8 +29490,11 @@
       <c r="C1" s="1">
         <v>8133</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1">
+        <v>66.499999999999886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -26070,8 +29504,11 @@
       <c r="C2" s="1">
         <v>8401</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>65.834999999999894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -26081,8 +29518,11 @@
       <c r="C3" s="1">
         <v>8677</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>65.169999999999902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -26092,8 +29532,11 @@
       <c r="C4" s="1">
         <v>8524</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>63.839999999999897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -26103,8 +29546,11 @@
       <c r="C5" s="1">
         <v>8719</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>63.174999999999891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -26114,8 +29560,11 @@
       <c r="C6" s="1">
         <v>8768</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>62.509999999999899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -26125,8 +29574,11 @@
       <c r="C7" s="1">
         <v>8381</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>61.844999999999892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -26136,8 +29588,11 @@
       <c r="C8" s="1">
         <v>8873</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>61.1799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -26147,8 +29602,11 @@
       <c r="C9" s="1">
         <v>8414</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>60.84749999999989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -26158,8 +29616,11 @@
       <c r="C10" s="1">
         <v>7911</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>60.514999999999894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -26169,8 +29630,11 @@
       <c r="C11" s="1">
         <v>8332</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>60.182499999999898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -26180,8 +29644,11 @@
       <c r="C12" s="1">
         <v>8364</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>59.849999999999888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -26191,8 +29658,11 @@
       <c r="C13" s="1">
         <v>9020</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>59.184999999999896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -26202,8 +29672,11 @@
       <c r="C14" s="1">
         <v>8990</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>58.519999999999889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -26213,8 +29686,11 @@
       <c r="C15" s="1">
         <v>7935</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>57.189999999999891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -26224,8 +29700,11 @@
       <c r="C16" s="1">
         <v>8192</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>55.859999999999893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -26235,8 +29714,11 @@
       <c r="C17" s="1">
         <v>8408</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>55.416666666666593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -26246,8 +29728,11 @@
       <c r="C18" s="1">
         <v>7723</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>54.973333333333194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -26257,8 +29742,11 @@
       <c r="C19" s="1">
         <v>8223</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>54.529999999999895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -26268,8 +29756,11 @@
       <c r="C20" s="1">
         <v>8265</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>53.864999999999888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -26279,8 +29770,11 @@
       <c r="C21" s="1">
         <v>8404</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>53.199999999999896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -26290,8 +29784,11 @@
       <c r="C22" s="1">
         <v>8602</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>51.869999999999891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -26301,8 +29798,11 @@
       <c r="C23" s="1">
         <v>8605</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>51.204999999999892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -26312,8 +29812,11 @@
       <c r="C24" s="1">
         <v>8280</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>50.539999999999893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -26323,8 +29826,11 @@
       <c r="C25" s="1">
         <v>7971</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>49.209999999999894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -26334,8 +29840,11 @@
       <c r="C26" s="1">
         <v>7904</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>48.544999999999895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -26345,8 +29854,11 @@
       <c r="C27" s="1">
         <v>8622</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>47.879999999999889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -26356,8 +29868,11 @@
       <c r="C28" s="1">
         <v>8675</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <v>47.214999999999897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -26367,8 +29882,11 @@
       <c r="C29" s="1">
         <v>8093</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <v>46.549999999999891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -26378,8 +29896,11 @@
       <c r="C30" s="1">
         <v>7526</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>45.884999999999899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -26389,8 +29910,11 @@
       <c r="C31" s="1">
         <v>7893</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>45.219999999999892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -26400,8 +29924,11 @@
       <c r="C32" s="1">
         <v>8406</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>44.776666666666593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -26411,8 +29938,11 @@
       <c r="C33" s="1">
         <v>8460</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>44.333333333333194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -26422,8 +29952,11 @@
       <c r="C34" s="1">
         <v>7729</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>43.889999999999894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -26433,8 +29966,11 @@
       <c r="C35" s="1">
         <v>7127</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>43.446666666666594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -26444,8 +29980,11 @@
       <c r="C36" s="1">
         <v>8523</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>43.003333333333195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -26455,8 +29994,11 @@
       <c r="C37" s="1">
         <v>8549</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>42.559999999999896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -26466,8 +30008,11 @@
       <c r="C38" s="1">
         <v>8268</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <v>41.894999999999889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -26477,8 +30022,11 @@
       <c r="C39" s="1">
         <v>7568</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <v>41.229999999999897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -26488,8 +30036,11 @@
       <c r="C40" s="1">
         <v>7451</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>40.786666666666598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -26499,8 +30050,11 @@
       <c r="C41" s="1">
         <v>8001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>40.343333333333199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -26510,8 +30064,11 @@
       <c r="C42" s="1">
         <v>8373</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>39.899999999999892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -26521,8 +30078,11 @@
       <c r="C43" s="1">
         <v>8667</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>39.234999999999893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -26532,8 +30092,11 @@
       <c r="C44" s="1">
         <v>6900</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <v>38.569999999999894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -26543,8 +30106,11 @@
       <c r="C45" s="1">
         <v>7364</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>38.126666666666594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -26554,8 +30120,11 @@
       <c r="C46" s="1">
         <v>7668</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>37.683333333333195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -26565,8 +30134,11 @@
       <c r="C47" s="1">
         <v>8864</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47">
+        <v>37.239999999999888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -26576,8 +30148,11 @@
       <c r="C48" s="1">
         <v>8383</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <v>36.574999999999896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -26587,8 +30162,11 @@
       <c r="C49" s="1">
         <v>6875</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <v>35.90999999999989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -26598,8 +30176,11 @@
       <c r="C50" s="1">
         <v>6508</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>35.577499999999894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -26609,8 +30190,11 @@
       <c r="C51" s="1">
         <v>7270</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51">
+        <v>35.244999999999898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -26620,8 +30204,11 @@
       <c r="C52" s="1">
         <v>9910</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52">
+        <v>34.912499999999895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -26631,8 +30218,11 @@
       <c r="C53" s="1">
         <v>9272</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <v>34.579999999999892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -26642,8 +30232,11 @@
       <c r="C54" s="1">
         <v>7610</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54">
+        <v>33.914999999999893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -26653,8 +30246,11 @@
       <c r="C55" s="1">
         <v>6178</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55">
+        <v>33.249999999999893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -26664,8 +30260,11 @@
       <c r="C56" s="1">
         <v>7381</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56">
+        <v>32.806666666666594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -26675,8 +30274,11 @@
       <c r="C57" s="1">
         <v>7817</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57">
+        <v>32.363333333333294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -26686,8 +30288,11 @@
       <c r="C58" s="1">
         <v>9578</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58">
+        <v>31.919999999999895</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -26697,8 +30302,11 @@
       <c r="C59" s="1">
         <v>8645</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59">
+        <v>31.254999999999896</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -26708,8 +30316,11 @@
       <c r="C60" s="1">
         <v>6795</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60">
+        <v>30.589999999999897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -26719,8 +30330,11 @@
       <c r="C61" s="1">
         <v>6510</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61">
+        <v>30.14666666666659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -26730,8 +30344,11 @@
       <c r="C62" s="1">
         <v>7416</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62">
+        <v>29.703333333333291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -26741,8 +30358,11 @@
       <c r="C63" s="1">
         <v>8621</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63">
+        <v>29.259999999999891</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -26752,8 +30372,11 @@
       <c r="C64" s="1">
         <v>9690</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64">
+        <v>28.816666666666592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -26763,8 +30386,11 @@
       <c r="C65" s="1">
         <v>7433</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65">
+        <v>28.373333333333292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -26774,8 +30400,11 @@
       <c r="C66" s="1">
         <v>7014</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66">
+        <v>27.929999999999893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -26785,8 +30414,11 @@
       <c r="C67" s="1">
         <v>6650</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67">
+        <v>27.59749999999989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -26796,8 +30428,11 @@
       <c r="C68" s="1">
         <v>7226</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68">
+        <v>27.264999999999894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -26807,8 +30442,11 @@
       <c r="C69" s="1">
         <v>8863</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69">
+        <v>26.932499999999891</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -26818,8 +30456,11 @@
       <c r="C70" s="1">
         <v>9450</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70">
+        <v>26.599999999999895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -26829,8 +30470,11 @@
       <c r="C71" s="1">
         <v>7813</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71">
+        <v>25.934999999999896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -26840,8 +30484,11 @@
       <c r="C72" s="1">
         <v>6093</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72">
+        <v>25.269999999999897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -26851,8 +30498,11 @@
       <c r="C73" s="1">
         <v>6502</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73">
+        <v>24.937499999999893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -26862,8 +30512,11 @@
       <c r="C74" s="1">
         <v>7199</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74">
+        <v>24.60499999999989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -26873,8 +30526,11 @@
       <c r="C75" s="1">
         <v>9310</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75">
+        <v>24.272499999999894</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -26884,8 +30540,11 @@
       <c r="C76" s="1">
         <v>10186</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76">
+        <v>23.939999999999891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -26895,8 +30554,11 @@
       <c r="C77" s="1">
         <v>9219</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77">
+        <v>23.496666666666592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -26906,8 +30568,11 @@
       <c r="C78" s="1">
         <v>6937</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78">
+        <v>23.053333333333292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -26917,8 +30582,11 @@
       <c r="C79" s="1">
         <v>6270</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79">
+        <v>22.609999999999893</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -26928,8 +30596,11 @@
       <c r="C80" s="1">
         <v>7088</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80">
+        <v>22.166666666666593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -26939,8 +30610,11 @@
       <c r="C81" s="1">
         <v>8364</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81">
+        <v>21.723333333333294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -26950,8 +30624,11 @@
       <c r="C82" s="1">
         <v>9253</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82">
+        <v>21.279999999999895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -26961,8 +30638,11 @@
       <c r="C83" s="1">
         <v>10158</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83">
+        <v>20.836666666666595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -26972,8 +30652,11 @@
       <c r="C84" s="1">
         <v>8773</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84">
+        <v>20.393333333333295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -26983,8 +30666,11 @@
       <c r="C85" s="1">
         <v>6430</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85">
+        <v>19.949999999999896</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -26994,8 +30680,11 @@
       <c r="C86" s="1">
         <v>6357</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86">
+        <v>19.683999999999891</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -27005,8 +30694,11 @@
       <c r="C87" s="1">
         <v>6374</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87">
+        <v>19.417999999999893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -27016,8 +30708,11 @@
       <c r="C88" s="1">
         <v>7752</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88">
+        <v>19.151999999999894</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -27027,8 +30722,11 @@
       <c r="C89" s="1">
         <v>9340</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89">
+        <v>18.885999999999896</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -27038,8 +30736,11 @@
       <c r="C90" s="1">
         <v>10073</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90">
+        <v>18.619999999999891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -27049,8 +30750,11 @@
       <c r="C91" s="1">
         <v>8090</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91">
+        <v>18.176666666666591</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -27060,8 +30764,11 @@
       <c r="C92" s="1">
         <v>7014</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92">
+        <v>17.733333333333292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -27071,8 +30778,11 @@
       <c r="C93" s="1">
         <v>6104</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93">
+        <v>17.289999999999893</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -27082,8 +30792,11 @@
       <c r="C94" s="1">
         <v>6286</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94">
+        <v>15.959999999999894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -27093,8 +30806,11 @@
       <c r="C95" s="1">
         <v>7102</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95">
+        <v>15.627499999999891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -27104,8 +30820,11 @@
       <c r="C96" s="1">
         <v>8741</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96">
+        <v>15.294999999999895</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -27115,8 +30834,11 @@
       <c r="C97" s="1">
         <v>9355</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97">
+        <v>14.962499999999892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -27126,8 +30848,11 @@
       <c r="C98" s="1">
         <v>10496</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98">
+        <v>14.629999999999896</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -27137,8 +30862,11 @@
       <c r="C99" s="1">
         <v>9567</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99">
+        <v>14.186666666666596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -27148,8 +30876,11 @@
       <c r="C100" s="1">
         <v>7325</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100">
+        <v>13.743333333333297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -27159,8 +30890,11 @@
       <c r="C101" s="1">
         <v>6383</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101">
+        <v>13.299999999999891</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -27170,8 +30904,11 @@
       <c r="C102" s="1">
         <v>5997</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102">
+        <v>13.033999999999892</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -27181,8 +30918,11 @@
       <c r="C103" s="1">
         <v>6631</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103">
+        <v>12.767999999999894</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -27192,8 +30932,11 @@
       <c r="C104" s="1">
         <v>7355</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104">
+        <v>12.501999999999896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -27203,8 +30946,11 @@
       <c r="C105" s="1">
         <v>9124</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105">
+        <v>12.235999999999891</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -27214,8 +30960,11 @@
       <c r="C106" s="1">
         <v>10377</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106">
+        <v>11.969999999999892</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -27225,8 +30974,11 @@
       <c r="C107" s="1">
         <v>10850</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107">
+        <v>11.703999999999894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -27236,8 +30988,11 @@
       <c r="C108" s="1">
         <v>9130</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108">
+        <v>11.437999999999896</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -27247,8 +31002,11 @@
       <c r="C109" s="1">
         <v>7460</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D109">
+        <v>11.17199999999989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -27258,8 +31016,11 @@
       <c r="C110" s="1">
         <v>6291</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D110">
+        <v>10.905999999999892</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -27269,8 +31030,11 @@
       <c r="C111" s="1">
         <v>6339</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D111">
+        <v>10.639999999999894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -27280,8 +31044,11 @@
       <c r="C112" s="1">
         <v>6446</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D112">
+        <v>10.307499999999891</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -27291,8 +31058,11 @@
       <c r="C113" s="1">
         <v>7473</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D113">
+        <v>9.9749999999999943</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -27302,8 +31072,11 @@
       <c r="C114" s="1">
         <v>9020</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D114">
+        <v>9.6424999999998917</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -27313,8 +31086,11 @@
       <c r="C115" s="1">
         <v>9962</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D115">
+        <v>9.3099999999999952</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -27324,8 +31100,11 @@
       <c r="C116" s="1">
         <v>10839</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D116">
+        <v>9.0883333333332956</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -27335,8 +31114,11 @@
       <c r="C117" s="1">
         <v>10368</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D117">
+        <v>8.8666666666665961</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -27346,8 +31128,11 @@
       <c r="C118" s="1">
         <v>7856</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D118">
+        <v>8.644999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -27357,8 +31142,11 @@
       <c r="C119" s="1">
         <v>6923</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D119">
+        <v>8.4233333333332965</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -27368,8 +31156,11 @@
       <c r="C120" s="1">
         <v>5861</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D120">
+        <v>8.2016666666665969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -27379,8 +31170,11 @@
       <c r="C121" s="1">
         <v>5846</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D121">
+        <v>7.9799999999999969</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -27390,8 +31184,11 @@
       <c r="C122" s="1">
         <v>6317</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D122">
+        <v>7.7139999999999915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -27401,8 +31198,11 @@
       <c r="C123" s="1">
         <v>7413</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D123">
+        <v>7.4479999999998938</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -27412,8 +31212,11 @@
       <c r="C124" s="1">
         <v>8720</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D124">
+        <v>7.1819999999999951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -27423,8 +31226,11 @@
       <c r="C125" s="1">
         <v>9863</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D125">
+        <v>6.9159999999999968</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -27434,8 +31240,11 @@
       <c r="C126" s="1">
         <v>10789</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D126">
+        <v>6.6499999999999915</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -27445,8 +31254,11 @@
       <c r="C127" s="1">
         <v>10143</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D127">
+        <v>6.3839999999999932</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -27456,8 +31268,11 @@
       <c r="C128" s="1">
         <v>9197</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D128">
+        <v>6.117999999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -27467,8 +31282,11 @@
       <c r="C129" s="1">
         <v>8522</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D129">
+        <v>5.8519999999999968</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -27478,8 +31296,11 @@
       <c r="C130" s="1">
         <v>6736</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D130">
+        <v>5.5859999999999914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -27489,8 +31310,11 @@
       <c r="C131" s="1">
         <v>5689</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D131">
+        <v>5.3199999999999932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -27500,8 +31324,11 @@
       <c r="C132" s="1">
         <v>6334</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D132">
+        <v>5.1299999999999955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -27511,8 +31338,11 @@
       <c r="C133" s="1">
         <v>5904</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D133">
+        <v>4.9399999999999906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -27522,8 +31352,11 @@
       <c r="C134" s="1">
         <v>7152</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D134">
+        <v>4.7499999999999929</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -27533,8 +31366,11 @@
       <c r="C135" s="1">
         <v>8069</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D135">
+        <v>4.5599999999999952</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -27544,8 +31380,11 @@
       <c r="C136" s="1">
         <v>8979</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D136">
+        <v>4.3699999999999903</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -27555,8 +31394,11 @@
       <c r="C137" s="1">
         <v>9978</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D137">
+        <v>4.1799999999999926</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -27566,8 +31408,11 @@
       <c r="C138" s="1">
         <v>10453</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D138">
+        <v>3.9899999999999949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -27577,8 +31422,11 @@
       <c r="C139" s="1">
         <v>11182</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D139">
+        <v>3.7683333333332953</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -27588,8 +31436,11 @@
       <c r="C140" s="1">
         <v>10131</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D140">
+        <v>3.5466666666665958</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -27599,8 +31450,11 @@
       <c r="C141" s="1">
         <v>8743</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D141">
+        <v>3.3249999999999957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -27610,8 +31464,11 @@
       <c r="C142" s="1">
         <v>7305</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D142">
+        <v>3.1033333333332962</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -27621,8 +31478,11 @@
       <c r="C143" s="1">
         <v>6572</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D143">
+        <v>2.8816666666665967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -27632,8 +31492,11 @@
       <c r="C144" s="1">
         <v>5998</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D144">
+        <v>2.6599999999999966</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -27643,8 +31506,11 @@
       <c r="C145" s="1">
         <v>5775</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145">
+        <v>2.5390909090908949</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -27654,8 +31520,11 @@
       <c r="C146" s="1">
         <v>5745</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146">
+        <v>2.4181818181818002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -27665,8 +31534,11 @@
       <c r="C147" s="1">
         <v>6125</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147">
+        <v>2.2972727272726914</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -27676,8 +31548,11 @@
       <c r="C148" s="1">
         <v>6892</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148">
+        <v>2.1763636363635968</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -27687,8 +31562,11 @@
       <c r="C149" s="1">
         <v>7462</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D149">
+        <v>2.0554545454544879</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -27698,8 +31576,11 @@
       <c r="C150" s="1">
         <v>8630</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D150">
+        <v>1.9345454545453933</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -27709,8 +31590,11 @@
       <c r="C151" s="1">
         <v>9705</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D151">
+        <v>1.8136363636362987</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -27720,8 +31604,11 @@
       <c r="C152" s="1">
         <v>10558</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D152">
+        <v>1.6927272727271898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -27731,8 +31618,11 @@
       <c r="C153" s="1">
         <v>11333</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D153">
+        <v>1.5718181818180952</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -27742,8 +31632,11 @@
       <c r="C154" s="1">
         <v>10836</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D154">
+        <v>1.4509090909089863</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -27753,8 +31646,11 @@
       <c r="C155" s="1">
         <v>10730</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D155">
+        <v>1.3299999999999912</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -27764,8 +31660,11 @@
       <c r="C156" s="1">
         <v>10391</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D156">
+        <v>1.1822222222221868</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -27775,8 +31674,11 @@
       <c r="C157" s="1">
         <v>10177</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D157">
+        <v>1.0344444444443965</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -27786,8 +31688,11 @@
       <c r="C158" s="1">
         <v>9045</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D158">
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -27797,8 +31702,11 @@
       <c r="C159" s="1">
         <v>7701</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D159">
+        <v>0.73888888888878768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -27808,8 +31716,11 @@
       <c r="C160" s="1">
         <v>6948</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D160">
+        <v>0.59111111111109693</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -27819,8 +31730,11 @@
       <c r="C161" s="1">
         <v>5911</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D161">
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -27830,8 +31744,11 @@
       <c r="C162" s="1">
         <v>5812</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D162">
+        <v>0.29555555555548807</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -27841,8 +31758,11 @@
       <c r="C163" s="1">
         <v>5843</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D163">
+        <v>0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -27852,8 +31772,11 @@
       <c r="C164" s="1">
         <v>5968</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -27864,7 +31787,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -27875,7 +31798,7 @@
         <v>5402</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -27886,7 +31809,7 @@
         <v>6653</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -27897,7 +31820,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -27908,7 +31831,7 @@
         <v>6328</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -27919,7 +31842,7 @@
         <v>7406</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -27930,7 +31853,7 @@
         <v>7677</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -27941,7 +31864,7 @@
         <v>7844</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -27952,7 +31875,7 @@
         <v>8085</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -27963,7 +31886,7 @@
         <v>8221</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -27974,7 +31897,7 @@
         <v>8926</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -28206,7 +32129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
